--- a/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/末地神化boss数值曲线.xlsx
+++ b/test/[神化]Apotheosis-1.18.2-5.8.1/data/apotheosis/bosses/末地神化boss数值曲线.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15164\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\git\1.18.2Minecraft_modpacks01\test\[神化]Apotheosis-1.18.2-5.8.1\data\apotheosis\bosses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC08803-DCD1-4C24-9DF1-3B91EF2D14B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5D720-370C-46A7-A060-75D1528FC11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +47,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尸壳</t>
+    <t>珍贵(rare)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>``</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗(epic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_health(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement_speed(乘算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_damage/arrow_damage(乘算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockback_resistance(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor_toughness(加算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末影人(enderman)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末影螨(endermite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤魔者(evoker)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜影贝(shulker)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻翼(phantom)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +126,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -82,13 +143,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -104,6 +251,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>权重</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>僵尸猪灵(zombified_piglin)</v>
+          </cell>
+          <cell r="B35">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>烈焰人(blaze)</v>
+          </cell>
+          <cell r="B36">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>猪灵(piglin)</v>
+          </cell>
+          <cell r="B37">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>凋灵骷髅(wither_skeleton))</v>
+          </cell>
+          <cell r="B38">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>僵尸疣猪兽(zoglin)</v>
+          </cell>
+          <cell r="B39">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>猪灵蛮兵(piglin_brute)</v>
+          </cell>
+          <cell r="B40">
+            <v>30</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,28 +586,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.08203125" customWidth="1"/>
+    <col min="2" max="3" width="8.58203125" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="7" width="8.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D28"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
